--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-54/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-54/curvature_data.xlsx
@@ -379,100 +379,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>57382.295208</v>
+        <v>57303.363204</v>
       </c>
       <c r="B2">
-        <v>-1.187702292e-05</v>
+        <v>-1.5083174016e-05</v>
       </c>
       <c r="C2">
-        <v>-1.5074751514e-05</v>
+        <v>-1.8010734534e-05</v>
       </c>
       <c r="D2">
-        <v>-2.4547543371e-05</v>
+        <v>-2.6680874169e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>57349.363206</v>
+        <v>57316.163205</v>
       </c>
       <c r="B3">
-        <v>-0.0005077735000000001</v>
+        <v>-0.00013202921781</v>
       </c>
       <c r="C3">
-        <v>-0.0005574364</v>
+        <v>-0.00012332683907</v>
       </c>
       <c r="D3">
-        <v>-0.0001576266</v>
+        <v>-8.406845879699999e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>57303.363204</v>
+        <v>57333.695206</v>
       </c>
       <c r="B4">
-        <v>-1.5083174016e-05</v>
+        <v>-0.0003053563</v>
       </c>
       <c r="C4">
-        <v>-1.8010734534e-05</v>
+        <v>-0.0003459865</v>
       </c>
       <c r="D4">
-        <v>-2.6680874169e-05</v>
+        <v>-0.000119339</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>57333.695206</v>
+        <v>57349.363206</v>
       </c>
       <c r="B5">
-        <v>-0.0003053563</v>
+        <v>-0.0005077735000000001</v>
       </c>
       <c r="C5">
-        <v>-0.0003459865</v>
+        <v>-0.0005574364</v>
       </c>
       <c r="D5">
-        <v>-0.000119339</v>
+        <v>-0.0001576266</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>57370.895207</v>
+        <v>57360.031207</v>
       </c>
       <c r="B6">
-        <v>-0.00015866779009</v>
+        <v>-0.0002748586</v>
       </c>
       <c r="C6">
-        <v>-0.00012564708613</v>
+        <v>-0.0003286508</v>
       </c>
       <c r="D6">
-        <v>-8.068506817500001e-05</v>
+        <v>-0.0001309399</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>57316.163205</v>
+        <v>57370.895207</v>
       </c>
       <c r="B7">
-        <v>-0.00013202921781</v>
+        <v>-0.00015866779009</v>
       </c>
       <c r="C7">
-        <v>-0.00012332683907</v>
+        <v>-0.00012564708613</v>
       </c>
       <c r="D7">
-        <v>-8.406845879699999e-05</v>
+        <v>-8.068506817500001e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>57360.031207</v>
+        <v>57382.295208</v>
       </c>
       <c r="B8">
-        <v>-0.0002748586</v>
+        <v>-1.187702292e-05</v>
       </c>
       <c r="C8">
-        <v>-0.0003286508</v>
+        <v>-1.5074751514e-05</v>
       </c>
       <c r="D8">
-        <v>-0.0001309399</v>
+        <v>-2.4547543371e-05</v>
       </c>
     </row>
   </sheetData>
